--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-112397.1475791087</v>
+        <v>-115300.6891915793</v>
       </c>
     </row>
     <row r="7">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>87.03791189352035</v>
       </c>
       <c r="C2" t="n">
-        <v>255.6547233922469</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>339.2889143606334</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>90.54200888609523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,13 +820,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>76.37590626022377</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>200.5196897930034</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>387.5644949963572</v>
       </c>
       <c r="G5" t="n">
-        <v>413.5826195607144</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>26.32882004050054</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>6.357987380643181</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>230.23068660084</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,16 +1139,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1187,19 +1187,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>267.8496433330511</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>97.81413504398226</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>62.33263748886721</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.921725653453</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -1576,19 +1576,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>89.64816212769534</v>
       </c>
       <c r="U13" t="n">
-        <v>284.5415089287258</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>155.8923871644471</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -1783,7 +1783,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>16.4121966816155</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>49.83383350955594</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>86.14257700143592</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2242,16 +2242,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>131.7280115571599</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785999</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>59.90320919298912</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>120.7871326503968</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>178.8076944857614</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2953,10 +2953,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>9.146142788179368</v>
+        <v>3.006892987834117</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3196,13 +3196,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>9.146142788179368</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3472,13 +3472,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1217.750080975891</v>
+        <v>1333.300040394793</v>
       </c>
       <c r="C2" t="n">
-        <v>959.5129866402885</v>
+        <v>1333.300040394793</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>975.0343417880424</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.575150942547</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W2" t="n">
-        <v>1695.806495672433</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X2" t="n">
-        <v>1695.806495672433</v>
+        <v>1421.217123115521</v>
       </c>
       <c r="Y2" t="n">
-        <v>1604.349921040013</v>
+        <v>1421.217123115521</v>
       </c>
     </row>
     <row r="3">
@@ -4401,7 +4401,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>438.9553738610022</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="C4" t="n">
-        <v>438.9553738610022</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="D4" t="n">
-        <v>288.8387344486664</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="E4" t="n">
-        <v>288.8387344486664</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610022</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="W4" t="n">
-        <v>438.9553738610022</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="X4" t="n">
-        <v>438.9553738610022</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.9553738610022</v>
+        <v>348.0202652891861</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1568.149526959219</v>
+        <v>1760.906005007191</v>
       </c>
       <c r="C5" t="n">
-        <v>1568.149526959219</v>
+        <v>1760.906005007191</v>
       </c>
       <c r="D5" t="n">
-        <v>1209.883828352469</v>
+        <v>1402.640306400441</v>
       </c>
       <c r="E5" t="n">
-        <v>1209.883828352469</v>
+        <v>1016.852053802196</v>
       </c>
       <c r="F5" t="n">
-        <v>798.897923562861</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X5" t="n">
-        <v>1958.288858935031</v>
+        <v>2147.505845071313</v>
       </c>
       <c r="Y5" t="n">
-        <v>1568.149526959219</v>
+        <v>2147.505845071313</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>359.2716929833838</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C7" t="n">
-        <v>359.2716929833838</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D7" t="n">
-        <v>359.2716929833838</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>359.2716929833838</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="S7" t="n">
-        <v>365.6939024587809</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="T7" t="n">
-        <v>365.6939024587809</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="U7" t="n">
-        <v>365.6939024587809</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="V7" t="n">
-        <v>365.6939024587809</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="W7" t="n">
-        <v>365.6939024587809</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="X7" t="n">
-        <v>359.2716929833838</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="Y7" t="n">
-        <v>359.2716929833838</v>
+        <v>701.5342164887571</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1001.280783616703</v>
+        <v>1310.22335213854</v>
       </c>
       <c r="C8" t="n">
-        <v>632.3182666762914</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="D8" t="n">
-        <v>632.3182666762914</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.575150942547</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W8" t="n">
-        <v>2048.575150942547</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X8" t="n">
-        <v>1778.019955656637</v>
+        <v>1542.779601230298</v>
       </c>
       <c r="Y8" t="n">
-        <v>1387.880623680825</v>
+        <v>1542.779601230298</v>
       </c>
     </row>
     <row r="9">
@@ -4890,16 +4890,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>517.0200655508536</v>
+        <v>289.0740493317993</v>
       </c>
       <c r="C10" t="n">
-        <v>517.0200655508536</v>
+        <v>289.0740493317993</v>
       </c>
       <c r="D10" t="n">
-        <v>517.0200655508536</v>
+        <v>289.0740493317993</v>
       </c>
       <c r="E10" t="n">
-        <v>517.0200655508536</v>
+        <v>289.0740493317993</v>
       </c>
       <c r="F10" t="n">
-        <v>517.0200655508536</v>
+        <v>289.0740493317993</v>
       </c>
       <c r="G10" t="n">
-        <v>348.0202652891861</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
         <v>190.2718927217162</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>517.0200655508536</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>517.0200655508536</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>517.0200655508536</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>517.0200655508536</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>517.0200655508536</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>517.0200655508536</v>
+        <v>470.722514162039</v>
       </c>
       <c r="Y10" t="n">
-        <v>517.0200655508536</v>
+        <v>470.722514162039</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L11" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5109,25 +5109,25 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390113</v>
       </c>
       <c r="K12" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193582</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320235</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N12" t="n">
         <v>1715.000032008794</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>557.3941514382108</v>
+        <v>873.220281864028</v>
       </c>
       <c r="C13" t="n">
-        <v>557.3941514382108</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="D13" t="n">
-        <v>557.3941514382108</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E13" t="n">
-        <v>409.4810578558177</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F13" t="n">
         <v>409.4810578558177</v>
@@ -5191,16 +5191,16 @@
         <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5212,37 +5212,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T13" t="n">
-        <v>1764.65758193153</v>
+        <v>1865.789766985819</v>
       </c>
       <c r="U13" t="n">
-        <v>1477.241916346959</v>
+        <v>1576.686900111462</v>
       </c>
       <c r="V13" t="n">
-        <v>1477.241916346959</v>
+        <v>1322.002411905575</v>
       </c>
       <c r="W13" t="n">
-        <v>1187.824746309998</v>
+        <v>1322.002411905575</v>
       </c>
       <c r="X13" t="n">
-        <v>959.8351954119806</v>
+        <v>1094.012861007558</v>
       </c>
       <c r="Y13" t="n">
-        <v>739.0426162684505</v>
+        <v>873.220281864028</v>
       </c>
     </row>
     <row r="14">
@@ -5267,55 +5267,55 @@
         <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277731</v>
       </c>
       <c r="K14" t="n">
         <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1898.858917622687</v>
+        <v>1557.603359811482</v>
       </c>
       <c r="M14" t="n">
-        <v>2432.390822294612</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
         <v>2979.169639353394</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5352,28 +5352,28 @@
         <v>114.5683260468564</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390103</v>
       </c>
       <c r="K15" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193577</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320232</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>822.6328654632896</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="C16" t="n">
-        <v>653.6966825353827</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="D16" t="n">
-        <v>653.6966825353827</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="E16" t="n">
-        <v>653.6966825353827</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598115</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518528</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104702</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.51300886223</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1866.51300886223</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T16" t="n">
-        <v>1866.51300886223</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U16" t="n">
-        <v>1577.410141987874</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="V16" t="n">
-        <v>1560.832165541798</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="W16" t="n">
-        <v>1271.414995504837</v>
+        <v>1163.643339221624</v>
       </c>
       <c r="X16" t="n">
-        <v>1043.42544460682</v>
+        <v>935.6537883236067</v>
       </c>
       <c r="Y16" t="n">
-        <v>822.6328654632896</v>
+        <v>714.8612091800766</v>
       </c>
     </row>
     <row r="17">
@@ -5492,40 +5492,40 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277731</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1971.087962216428</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>2593.249184644073</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>3573.00145687072</v>
       </c>
       <c r="O17" t="n">
         <v>4075.973927750058</v>
@@ -5537,28 +5537,28 @@
         <v>4719.034655862918</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390103</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193577</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320232</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>876.4469737784534</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="C19" t="n">
-        <v>707.5107908505465</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="D19" t="n">
-        <v>557.3941514382108</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E19" t="n">
-        <v>409.4810578558177</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F19" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.38769389225</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598115</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T19" t="n">
-        <v>1956.343466104703</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U19" t="n">
-        <v>1869.330762062848</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1614.646273856961</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="W19" t="n">
-        <v>1325.229103820001</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="X19" t="n">
-        <v>1097.239552921983</v>
+        <v>681.283603280324</v>
       </c>
       <c r="Y19" t="n">
-        <v>876.4469737784534</v>
+        <v>460.4910241367938</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089262</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074201</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972667</v>
       </c>
       <c r="L20" t="n">
-        <v>1898.858917622687</v>
+        <v>1482.778354750622</v>
       </c>
       <c r="M20" t="n">
-        <v>2432.390822294612</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>2979.169639353394</v>
+        <v>3441.080929807097</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390103</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193577</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320232</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>525.6262188911253</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>525.6262188911253</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>375.5095794787895</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>375.5095794787895</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>228.6196319808792</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O22" t="n">
         <v>1646.12566951853</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T22" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U22" t="n">
-        <v>1445.473983799873</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>1445.473983799873</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>1156.056813762912</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>928.0672628648952</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>707.274683721365</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5972,67 +5972,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1650.184003770974</v>
+        <v>1840.447459262338</v>
       </c>
       <c r="M23" t="n">
-        <v>2183.715908442899</v>
+        <v>2373.979363934262</v>
       </c>
       <c r="N23" t="n">
-        <v>2730.494725501681</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
@@ -6063,37 +6063,37 @@
         <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
         <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>432.2000540015823</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6172,25 +6172,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1895.835173990573</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U25" t="n">
-        <v>1606.732307116217</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>1352.04781891033</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>1062.630648873369</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>834.6410979753522</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>613.848518831822</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,28 +6221,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6315,7 +6315,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="C28" t="n">
-        <v>391.8463960427007</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D28" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2016.448712673667</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1727.373486017864</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1472.688997811978</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1183.271827775017</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>955.2822768769995</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>734.4896977334694</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6464,7 +6464,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6601,16 +6601,16 @@
         <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6704,13 +6704,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6935,25 +6935,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -7014,25 +7014,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7120,10 +7120,10 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
         <v>1746.193029533436</v>
@@ -7154,28 +7154,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
         <v>402.7245934908939</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7400,7 +7400,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,22 +7488,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7549,16 +7549,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7725,25 +7725,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7840,13 +7840,13 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8456,7 +8456,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>417.66121455045</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476829</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8930,13 +8930,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>344.7025836476828</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>344.7025836476821</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -9161,22 +9161,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>89.52456338961713</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>344.7025836476828</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>133.2530576400234</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,10 +9638,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>285.7011105564207</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,10 +9650,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>251.1867816683974</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10112,13 +10112,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>295.6959297699602</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>295.6959297699584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986293</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>129.9007871484739</v>
       </c>
       <c r="U13" t="n">
-        <v>1.67032927688706</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>23.93959301749015</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.246821098626</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,16 +23701,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>235.7254466422125</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>129.9981466723814</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465679</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>200.0692612041769</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>34.29779670186829</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>105.0742887270129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24412,10 +24412,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>159.6457400831801</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>46.45968844823102</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>38.59775584152683</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,10 +24841,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>139.469330230033</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25084,13 +25084,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>136.2749052347519</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25360,13 +25360,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,10 +25798,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>299064.1401954732</v>
+        <v>299064.1401954731</v>
       </c>
       <c r="C2" t="n">
-        <v>307890.6636991062</v>
+        <v>307890.6636991064</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.6636991065</v>
+        <v>307890.6636991064</v>
       </c>
       <c r="E2" t="n">
         <v>297811.3401652374</v>
@@ -26326,34 +26326,34 @@
         <v>297811.3401652375</v>
       </c>
       <c r="G2" t="n">
-        <v>297811.3401652375</v>
+        <v>297811.3401652376</v>
       </c>
       <c r="H2" t="n">
         <v>297811.3401652376</v>
       </c>
       <c r="I2" t="n">
-        <v>297811.3401652374</v>
+        <v>297811.3401652375</v>
       </c>
       <c r="J2" t="n">
+        <v>302679.9748837521</v>
+      </c>
+      <c r="K2" t="n">
         <v>302679.9748837522</v>
-      </c>
-      <c r="K2" t="n">
-        <v>302679.9748837521</v>
       </c>
       <c r="L2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="M2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837522</v>
       </c>
       <c r="N2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="O2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.6636991061</v>
+        <v>307890.6636991058</v>
       </c>
     </row>
     <row r="3">
@@ -26375,7 +26375,7 @@
         <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.391791546571767e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>376527.1335735915</v>
+        <v>376527.1335735914</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363177</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187630.1352407913</v>
+        <v>187630.1352407912</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26424,40 +26424,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499383</v>
       </c>
       <c r="F4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499379</v>
       </c>
       <c r="G4" t="n">
+        <v>25090.72367499379</v>
+      </c>
+      <c r="H4" t="n">
+        <v>25090.72367499379</v>
+      </c>
+      <c r="I4" t="n">
         <v>25090.72367499381</v>
       </c>
-      <c r="H4" t="n">
-        <v>25090.7236749938</v>
-      </c>
-      <c r="I4" t="n">
-        <v>25090.7236749938</v>
-      </c>
       <c r="J4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670443</v>
       </c>
       <c r="K4" t="n">
-        <v>5067.592601670443</v>
+        <v>5067.592601670445</v>
       </c>
       <c r="L4" t="n">
-        <v>5067.592601670436</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="M4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670451</v>
       </c>
       <c r="N4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670467</v>
       </c>
       <c r="O4" t="n">
-        <v>5067.592601670445</v>
+        <v>5067.592601670439</v>
       </c>
       <c r="P4" t="n">
-        <v>13058.45186476391</v>
+        <v>13058.4518647639</v>
       </c>
     </row>
     <row r="5">
@@ -26479,16 +26479,16 @@
         <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-561392.952323272</v>
+        <v>-561451.7958132962</v>
       </c>
       <c r="C6" t="n">
-        <v>23967.07970796523</v>
+        <v>23967.07970796546</v>
       </c>
       <c r="D6" t="n">
-        <v>23967.07970796552</v>
+        <v>23967.0797079654</v>
       </c>
       <c r="E6" t="n">
-        <v>-551040.3157568766</v>
+        <v>-551107.5112471025</v>
       </c>
       <c r="F6" t="n">
-        <v>176337.0982365301</v>
+        <v>176269.9027463037</v>
       </c>
       <c r="G6" t="n">
-        <v>176337.0982365301</v>
+        <v>176269.9027463043</v>
       </c>
       <c r="H6" t="n">
-        <v>176337.0982365302</v>
+        <v>176269.9027463043</v>
       </c>
       <c r="I6" t="n">
-        <v>176337.0982365299</v>
+        <v>176269.9027463046</v>
       </c>
       <c r="J6" t="n">
-        <v>-180037.2811154168</v>
+        <v>-180072.0190408525</v>
       </c>
       <c r="K6" t="n">
-        <v>196489.8524581746</v>
+        <v>196455.114532739</v>
       </c>
       <c r="L6" t="n">
-        <v>196489.8524581747</v>
+        <v>196455.114532739</v>
       </c>
       <c r="M6" t="n">
-        <v>66847.53761922986</v>
+        <v>66812.79969379422</v>
       </c>
       <c r="N6" t="n">
-        <v>196489.8524581747</v>
+        <v>196455.1145327389</v>
       </c>
       <c r="O6" t="n">
-        <v>196489.8524581747</v>
+        <v>196455.114532739</v>
       </c>
       <c r="P6" t="n">
-        <v>172240.377986795</v>
+        <v>172240.3779867947</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
@@ -26747,13 +26747,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>652.4826302492741</v>
+        <v>652.4826302492737</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>109.6181683787607</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>42.6414557116284</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,13 +27540,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>69.04514176270747</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>24.51541566508084</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>19.31155074535423</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2015504600806253</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,16 +27673,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>2.793929914413759</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>219.351668008394</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>152.5031550626406</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,16 +27859,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>101.8814573454179</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28023,10 +28023,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>69.49566721506865</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>149.8129014611517</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28248,7 +28248,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28485,7 +28485,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28728,7 +28728,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I14" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026424</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,43 +32148,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I17" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026424</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P18" t="n">
         <v>447.6103584002929</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,43 +32385,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I20" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026424</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,43 +32622,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -33035,10 +33035,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33260,19 +33260,19 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>152.5685698206132</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,13 +33500,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>433.9798411722591</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,13 +33734,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33752,10 +33752,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>303.4024373464761</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34208,16 +34208,16 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34226,7 +34226,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34445,10 +34445,10 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,13 +34460,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,7 +35176,7 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435297</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
@@ -35258,7 +35258,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,25 +35410,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>852.755584535902</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407865</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265655</v>
       </c>
       <c r="L14" t="n">
-        <v>800.292698040015</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>897.0044190605938</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636244</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597718</v>
+        <v>94.62350453597567</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675386</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407865</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265655</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427828</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>628.4456792198441</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248959</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597567</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934829</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L20" t="n">
-        <v>800.292698040015</v>
+        <v>873.2513289427828</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230595</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248959</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282428</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597567</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,10 +36358,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>741.2912249487529</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
@@ -36370,10 +36370,10 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>759.2397825566165</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
         <v>463.1092954636242</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597718</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36683,10 +36683,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>25.73094315394657</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>291.8458072502408</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37400,10 +37400,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>165.5609983721171</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37874,7 +37874,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,13 +38108,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
